--- a/DFT Calculations/gp_start_folder_empty/pyrmd_properties_postprocessed_for_pyrmd1_to_pyrmd10.xlsx
+++ b/DFT Calculations/gp_start_folder_empty/pyrmd_properties_postprocessed_for_pyrmd1_to_pyrmd10.xlsx
@@ -3106,7 +3106,7 @@
         <v>509.7804314457763</v>
       </c>
       <c r="Y10">
-        <v>0.882688368483469</v>
+        <v>0.8826883684834691</v>
       </c>
       <c r="Z10">
         <v>-0.43804</v>
@@ -3282,7 +3282,7 @@
         <v>508.6268122097481</v>
       </c>
       <c r="Y11">
-        <v>0.8832002689267217</v>
+        <v>0.8832002689267219</v>
       </c>
       <c r="Z11">
         <v>-0.44259</v>
@@ -3422,7 +3422,7 @@
         <v>509.073342598989</v>
       </c>
       <c r="Y12">
-        <v>0.883002128069635</v>
+        <v>0.8830021280696353</v>
       </c>
       <c r="Z12">
         <v>-0.4408288354774308</v>
@@ -3562,7 +3562,7 @@
         <v>0.7946529531611077</v>
       </c>
       <c r="Y13">
-        <v>0.0003526147850617763</v>
+        <v>0.0003526147850618528</v>
       </c>
       <c r="Z13">
         <v>0.003134197856592157</v>
@@ -3702,7 +3702,7 @@
         <v>508.6268122097481</v>
       </c>
       <c r="Y14">
-        <v>0.882688368483469</v>
+        <v>0.8826883684834691</v>
       </c>
       <c r="Z14">
         <v>-0.44259</v>
@@ -3842,7 +3842,7 @@
         <v>509.7804314457763</v>
       </c>
       <c r="Y15">
-        <v>0.8832002689267217</v>
+        <v>0.8832002689267219</v>
       </c>
       <c r="Z15">
         <v>-0.43804</v>
@@ -3982,7 +3982,7 @@
         <v>1.153619236028192</v>
       </c>
       <c r="Y16">
-        <v>0.0005119004432526664</v>
+        <v>0.0005119004432527774</v>
       </c>
       <c r="Z16">
         <v>0.004549999999999998</v>
@@ -4158,7 +4158,7 @@
         <v>508.6268122097481</v>
       </c>
       <c r="Y17">
-        <v>0.8832002689267217</v>
+        <v>0.8832002689267219</v>
       </c>
       <c r="Z17">
         <v>-0.44259</v>
@@ -4334,7 +4334,7 @@
         <v>508.6268122097481</v>
       </c>
       <c r="Y18">
-        <v>0.8832002689267217</v>
+        <v>0.8832002689267219</v>
       </c>
       <c r="Z18">
         <v>-0.44259</v>
@@ -5822,7 +5822,7 @@
         <v>0.8008381022775598</v>
       </c>
       <c r="BA27">
-        <v>8.90460677611978E-05</v>
+        <v>8.904638694046318E-05</v>
       </c>
       <c r="BB27">
         <v>1.338496836833523E-05</v>
@@ -5962,7 +5962,7 @@
         <v>0.8008381022775598</v>
       </c>
       <c r="BA28">
-        <v>8.90460677611978E-05</v>
+        <v>8.904638694046318E-05</v>
       </c>
       <c r="BB28">
         <v>1.338496836833523E-05</v>
@@ -6242,7 +6242,7 @@
         <v>0.8008381022775598</v>
       </c>
       <c r="BA30">
-        <v>8.90460677611978E-05</v>
+        <v>8.904638694046318E-05</v>
       </c>
       <c r="BB30">
         <v>1.338496836833523E-05</v>
@@ -6382,7 +6382,7 @@
         <v>0.8008381022775598</v>
       </c>
       <c r="BA31">
-        <v>8.90460677611978E-05</v>
+        <v>8.904638694046318E-05</v>
       </c>
       <c r="BB31">
         <v>1.338496836833523E-05</v>
@@ -6698,7 +6698,7 @@
         <v>0.8008381022775598</v>
       </c>
       <c r="BA33">
-        <v>8.90460677611978E-05</v>
+        <v>8.904638694046318E-05</v>
       </c>
       <c r="BB33">
         <v>1.338496836833523E-05</v>
@@ -6874,7 +6874,7 @@
         <v>0.8008381022775598</v>
       </c>
       <c r="BA34">
-        <v>8.90460677611978E-05</v>
+        <v>8.904638694046318E-05</v>
       </c>
       <c r="BB34">
         <v>1.338496836833523E-05</v>
@@ -6966,7 +6966,7 @@
         <v>336.3845772283227</v>
       </c>
       <c r="Y35">
-        <v>0.9357330512561504</v>
+        <v>0.9357330512561503</v>
       </c>
       <c r="Z35">
         <v>-0.63032</v>
@@ -7106,7 +7106,7 @@
         <v>336.3845772283227</v>
       </c>
       <c r="Y36">
-        <v>0.9357330512561504</v>
+        <v>0.9357330512561503</v>
       </c>
       <c r="Z36">
         <v>-0.63032</v>
@@ -7386,7 +7386,7 @@
         <v>336.3845772283227</v>
       </c>
       <c r="Y38">
-        <v>0.9357330512561504</v>
+        <v>0.9357330512561503</v>
       </c>
       <c r="Z38">
         <v>-0.63032</v>
@@ -7526,7 +7526,7 @@
         <v>336.3845772283227</v>
       </c>
       <c r="Y39">
-        <v>0.9357330512561504</v>
+        <v>0.9357330512561503</v>
       </c>
       <c r="Z39">
         <v>-0.63032</v>
@@ -7842,7 +7842,7 @@
         <v>336.3845772283227</v>
       </c>
       <c r="Y41">
-        <v>0.9357330512561504</v>
+        <v>0.9357330512561503</v>
       </c>
       <c r="Z41">
         <v>-0.63032</v>
@@ -8018,7 +8018,7 @@
         <v>336.3845772283227</v>
       </c>
       <c r="Y42">
-        <v>0.9357330512561504</v>
+        <v>0.9357330512561503</v>
       </c>
       <c r="Z42">
         <v>-0.63032</v>
@@ -8272,13 +8272,13 @@
         <v>3.267849732684239</v>
       </c>
       <c r="AY43">
-        <v>5.824048921953303</v>
+        <v>5.824048921953299</v>
       </c>
       <c r="AZ43">
         <v>0.7911850588381423</v>
       </c>
       <c r="BA43">
-        <v>0.2128773178249958</v>
+        <v>0.2128773178248623</v>
       </c>
       <c r="BB43">
         <v>0.03189131270549826</v>
@@ -8588,13 +8588,13 @@
         <v>3.273924128742991</v>
       </c>
       <c r="AY45">
-        <v>5.91362724103182</v>
+        <v>5.913627241031817</v>
       </c>
       <c r="AZ45">
         <v>0.7998776827452019</v>
       </c>
       <c r="BA45">
-        <v>0.1770817686780461</v>
+        <v>0.177081768677935</v>
       </c>
       <c r="BB45">
         <v>0.02652875509619669</v>
@@ -8728,13 +8728,13 @@
         <v>0.01909099261888354</v>
       </c>
       <c r="AY46">
-        <v>0.2815323551180245</v>
+        <v>0.2815323551180269</v>
       </c>
       <c r="AZ46">
         <v>0.02731972318619489</v>
       </c>
       <c r="BA46">
-        <v>0.112500495184002</v>
+        <v>0.1125004951839314</v>
       </c>
       <c r="BB46">
         <v>0.01685378212868046</v>
@@ -8868,7 +8868,7 @@
         <v>3.267849732684239</v>
       </c>
       <c r="AY47">
-        <v>5.824048921953303</v>
+        <v>5.824048921953299</v>
       </c>
       <c r="AZ47">
         <v>0.7911850588381423</v>
@@ -9014,7 +9014,7 @@
         <v>0.8428087518303466</v>
       </c>
       <c r="BA48">
-        <v>0.2128773178249958</v>
+        <v>0.2128773178248623</v>
       </c>
       <c r="BB48">
         <v>0.03189131270549826</v>
@@ -9148,13 +9148,13 @@
         <v>0.0360745800810931</v>
       </c>
       <c r="AY49">
-        <v>0.5319870837977341</v>
+        <v>0.5319870837977385</v>
       </c>
       <c r="AZ49">
         <v>0.05162369299220437</v>
       </c>
       <c r="BA49">
-        <v>0.2125823525102411</v>
+        <v>0.2125823525101076</v>
       </c>
       <c r="BB49">
         <v>0.03184711896378781</v>
@@ -9324,13 +9324,13 @@
         <v>3.267849732684239</v>
       </c>
       <c r="AY50">
-        <v>5.824048921953303</v>
+        <v>5.824048921953299</v>
       </c>
       <c r="AZ50">
         <v>0.7911850588381423</v>
       </c>
       <c r="BA50">
-        <v>0.2128773178249958</v>
+        <v>0.2128773178248623</v>
       </c>
       <c r="BB50">
         <v>0.03189131270549826</v>
@@ -9774,7 +9774,7 @@
         <v>383.8971885949264</v>
       </c>
       <c r="Y53">
-        <v>0.9197499703959033</v>
+        <v>0.9197499703959032</v>
       </c>
       <c r="Z53">
         <v>-0.44215</v>
@@ -10054,7 +10054,7 @@
         <v>1.86915623967976</v>
       </c>
       <c r="Y55">
-        <v>0.002169820603667823</v>
+        <v>0.002169820603667748</v>
       </c>
       <c r="Z55">
         <v>0.004407212895206794</v>
@@ -10334,7 +10334,7 @@
         <v>386.6751286811014</v>
       </c>
       <c r="Y57">
-        <v>0.9197499703959033</v>
+        <v>0.9197499703959032</v>
       </c>
       <c r="Z57">
         <v>-0.4356</v>
@@ -10474,7 +10474,7 @@
         <v>2.777940086175022</v>
       </c>
       <c r="Y58">
-        <v>0.003224787477246971</v>
+        <v>0.00322478747724686</v>
       </c>
       <c r="Z58">
         <v>0.00655</v>
@@ -10826,7 +10826,7 @@
         <v>383.8971885949264</v>
       </c>
       <c r="Y60">
-        <v>0.9197499703959033</v>
+        <v>0.9197499703959032</v>
       </c>
       <c r="Z60">
         <v>-0.44215</v>
@@ -11002,7 +11002,7 @@
         <v>386.054629647808</v>
       </c>
       <c r="Y61">
-        <v>0.9220310913627781</v>
+        <v>0.9220310913627778</v>
       </c>
       <c r="Z61">
         <v>-0.41932</v>
@@ -11315,7 +11315,7 @@
         <v>384.9795453834372</v>
       </c>
       <c r="Y63">
-        <v>0.9223310613744984</v>
+        <v>0.9223310613744982</v>
       </c>
       <c r="Z63">
         <v>-0.4196539513372056</v>
@@ -11455,7 +11455,7 @@
         <v>2.031219086285553</v>
       </c>
       <c r="Y64">
-        <v>0.0005667507499758939</v>
+        <v>0.0005667507499760446</v>
       </c>
       <c r="Z64">
         <v>0.0006309536401032708</v>
@@ -11592,7 +11592,7 @@
         <v>383.0606953392012</v>
       </c>
       <c r="Y65">
-        <v>0.9220310913627781</v>
+        <v>0.9220310913627778</v>
       </c>
       <c r="Z65">
         <v>-0.42025</v>
@@ -11872,7 +11872,7 @@
         <v>2.993934308606811</v>
       </c>
       <c r="Y67">
-        <v>0.0008353675515546666</v>
+        <v>0.0008353675515548886</v>
       </c>
       <c r="Z67">
         <v>0.0009299999999999864</v>
@@ -12048,7 +12048,7 @@
         <v>386.054629647808</v>
       </c>
       <c r="Y68">
-        <v>0.9220310913627781</v>
+        <v>0.9220310913627778</v>
       </c>
       <c r="Z68">
         <v>-0.41932</v>
@@ -14710,25 +14710,25 @@
         <v>508.6268122097481</v>
       </c>
       <c r="CA3">
-        <v>0.883002128069635</v>
+        <v>0.8830021280696353</v>
       </c>
       <c r="CB3">
-        <v>0.0003526147850617763</v>
+        <v>0.0003526147850618528</v>
       </c>
       <c r="CC3">
-        <v>0.882688368483469</v>
+        <v>0.8826883684834691</v>
       </c>
       <c r="CD3">
-        <v>0.8832002689267217</v>
+        <v>0.8832002689267219</v>
       </c>
       <c r="CE3">
-        <v>0.0005119004432526664</v>
+        <v>0.0005119004432527774</v>
       </c>
       <c r="CF3">
-        <v>0.8832002689267217</v>
+        <v>0.8832002689267219</v>
       </c>
       <c r="CG3">
-        <v>0.8832002689267217</v>
+        <v>0.8832002689267219</v>
       </c>
       <c r="CH3">
         <v>-0.4408288354774308</v>
@@ -17198,25 +17198,25 @@
         <v>0.8008381022775598</v>
       </c>
       <c r="JO5">
-        <v>8.90460677611978E-05</v>
+        <v>8.904638694046318E-05</v>
       </c>
       <c r="JP5">
         <v>0</v>
       </c>
       <c r="JQ5">
-        <v>8.90460677611978E-05</v>
+        <v>8.904638694046318E-05</v>
       </c>
       <c r="JR5">
-        <v>8.90460677611978E-05</v>
+        <v>8.904638694046318E-05</v>
       </c>
       <c r="JS5">
         <v>0</v>
       </c>
       <c r="JT5">
-        <v>8.90460677611978E-05</v>
+        <v>8.904638694046318E-05</v>
       </c>
       <c r="JU5">
-        <v>8.90460677611978E-05</v>
+        <v>8.904638694046318E-05</v>
       </c>
       <c r="JV5">
         <v>1.338496836833523E-05</v>
@@ -17560,25 +17560,25 @@
         <v>336.3845772283227</v>
       </c>
       <c r="CA6">
-        <v>0.9357330512561504</v>
+        <v>0.9357330512561503</v>
       </c>
       <c r="CB6">
         <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.9357330512561504</v>
+        <v>0.9357330512561503</v>
       </c>
       <c r="CD6">
-        <v>0.9357330512561504</v>
+        <v>0.9357330512561503</v>
       </c>
       <c r="CE6">
         <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.9357330512561504</v>
+        <v>0.9357330512561503</v>
       </c>
       <c r="CG6">
-        <v>0.9357330512561504</v>
+        <v>0.9357330512561503</v>
       </c>
       <c r="CH6">
         <v>-0.63032</v>
@@ -19056,22 +19056,22 @@
         <v>3.303924312765332</v>
       </c>
       <c r="JA7">
-        <v>5.91362724103182</v>
+        <v>5.913627241031817</v>
       </c>
       <c r="JB7">
-        <v>0.2815323551180245</v>
+        <v>0.2815323551180269</v>
       </c>
       <c r="JC7">
-        <v>5.824048921953303</v>
+        <v>5.824048921953299</v>
       </c>
       <c r="JD7">
         <v>6.356036005751037</v>
       </c>
       <c r="JE7">
-        <v>0.5319870837977341</v>
+        <v>0.5319870837977385</v>
       </c>
       <c r="JF7">
-        <v>5.824048921953303</v>
+        <v>5.824048921953299</v>
       </c>
       <c r="JG7">
         <v>6.356036005751037</v>
@@ -19098,22 +19098,22 @@
         <v>0.8428087518303466</v>
       </c>
       <c r="JO7">
-        <v>0.1770817686780461</v>
+        <v>0.177081768677935</v>
       </c>
       <c r="JP7">
-        <v>0.112500495184002</v>
+        <v>0.1125004951839314</v>
       </c>
       <c r="JQ7">
         <v>0.0002949653147547229</v>
       </c>
       <c r="JR7">
-        <v>0.2128773178249958</v>
+        <v>0.2128773178248623</v>
       </c>
       <c r="JS7">
-        <v>0.2125823525102411</v>
+        <v>0.2125823525101076</v>
       </c>
       <c r="JT7">
-        <v>0.2128773178249958</v>
+        <v>0.2128773178248623</v>
       </c>
       <c r="JU7">
         <v>0.0002949653147547229</v>
@@ -19463,22 +19463,22 @@
         <v>0.9176418420081967</v>
       </c>
       <c r="CB8">
-        <v>0.002169820603667823</v>
+        <v>0.002169820603667748</v>
       </c>
       <c r="CC8">
         <v>0.9165251829186564</v>
       </c>
       <c r="CD8">
-        <v>0.9197499703959033</v>
+        <v>0.9197499703959032</v>
       </c>
       <c r="CE8">
-        <v>0.003224787477246971</v>
+        <v>0.00322478747724686</v>
       </c>
       <c r="CF8">
         <v>0.9165251829186564</v>
       </c>
       <c r="CG8">
-        <v>0.9197499703959033</v>
+        <v>0.9197499703959032</v>
       </c>
       <c r="CH8">
         <v>-0.4378680927311011</v>
@@ -20410,22 +20410,22 @@
         <v>383.0606953392012</v>
       </c>
       <c r="CA9">
-        <v>0.9223310613744984</v>
+        <v>0.9223310613744982</v>
       </c>
       <c r="CB9">
-        <v>0.0005667507499758939</v>
+        <v>0.0005667507499760446</v>
       </c>
       <c r="CC9">
-        <v>0.9220310913627781</v>
+        <v>0.9220310913627778</v>
       </c>
       <c r="CD9">
         <v>0.9228664589143327</v>
       </c>
       <c r="CE9">
-        <v>0.0008353675515546666</v>
+        <v>0.0008353675515548886</v>
       </c>
       <c r="CF9">
-        <v>0.9220310913627781</v>
+        <v>0.9220310913627778</v>
       </c>
       <c r="CG9">
         <v>0.9228664589143327</v>
